--- a/different_n/methods_coefficients/four_k_different_n.xlsx
+++ b/different_n/methods_coefficients/four_k_different_n.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="B29" sqref="B29:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,5 +1491,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>